--- a/___Cost_Analysis-Notas___/PreparacionParaElFinal/RazonesFinancieras.xlsx
+++ b/___Cost_Analysis-Notas___/PreparacionParaElFinal/RazonesFinancieras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Cost_Analysis-Notas___\PreparacionParaElFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A832DD3-6681-46D7-A42C-F16517E04298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6EEEE4-5D57-4815-A64D-5ABB38F3A1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RazonesFinancieras" sheetId="1" r:id="rId1"/>
@@ -62,12 +62,61 @@
         </r>
       </text>
     </comment>
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{75FB11B2-99C6-4E4E-BA4F-37E995BDDE4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DAVID CORZO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Razón circulante: 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{37349DA7-2CE4-4B71-BA95-84034856B10C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DAVID CORZO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+El número de veces que se vendió el inventario a traves del año fue ...</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t xml:space="preserve">Pasivo Corriente: </t>
   </si>
@@ -129,18 +178,6 @@
     <t xml:space="preserve">Prueba de ácido: </t>
   </si>
   <si>
-    <t xml:space="preserve">Razón de la deuda total: </t>
-  </si>
-  <si>
-    <t>Razón de la deuda capital:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplicador: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotación de inventarios: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Días de ventas en inventario: </t>
   </si>
   <si>
@@ -184,13 +221,28 @@
   </si>
   <si>
     <t>Comentario</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Rotación de inventarios: Costo / promedio inv.</t>
+  </si>
+  <si>
+    <t>Multiplicador: Activo total / capital total</t>
+  </si>
+  <si>
+    <t>Razón de la deuda capital: Pasivo total / capital</t>
+  </si>
+  <si>
+    <t>Razón de la deuda total: Pasivo total / activo total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +279,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -244,20 +309,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,417 +741,705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E41"/>
+  <dimension ref="B3:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="128" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+      <c r="E3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="E4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1643</v>
+      </c>
+      <c r="E6">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1954</v>
+      </c>
+      <c r="E7">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2088</v>
+      </c>
+      <c r="E8">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3074</v>
+      </c>
+      <c r="E10">
+        <f>2567</f>
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <f>4669-2295</f>
+        <v>2374</v>
+      </c>
+      <c r="E11">
+        <f>4322-2056</f>
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3597</v>
+      </c>
+      <c r="E12">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="E13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="E20">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6">
+        <f>C3/C4</f>
+        <v>1.9725806451612904</v>
+      </c>
+      <c r="D25" s="7">
+        <f>ROUND(C25,2)</f>
+        <v>1.97</v>
+      </c>
+      <c r="E25" s="6">
+        <f>E3/E4</f>
+        <v>2.0786749482401654</v>
+      </c>
+      <c r="F25" s="7">
+        <f>ROUND(E25,2)</f>
+        <v>2.08</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10">
+        <f>(C3-C5)/C4</f>
+        <v>1.5064516129032257</v>
+      </c>
+      <c r="D26" s="11">
+        <f>ROUND(C26,2)</f>
+        <v>1.51</v>
+      </c>
+      <c r="E26" s="10">
+        <f>(E3-E5)/E4</f>
+        <v>1.4575569358178053</v>
+      </c>
+      <c r="F26" s="11">
+        <f>ROUND(E26,2)</f>
+        <v>1.46</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="6">
+        <f>C6/C12</f>
+        <v>0.45676953016402555</v>
+      </c>
+      <c r="D28" s="7">
+        <f>ROUND(C28,2)</f>
+        <v>0.46</v>
+      </c>
+      <c r="E28" s="6">
+        <f>E6/E12</f>
+        <v>0.44342507645259938</v>
+      </c>
+      <c r="F28" s="7">
+        <f>ROUND(E28,2)</f>
+        <v>0.44</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="14">
+        <f>C6/C7</f>
+        <v>0.84083930399181162</v>
+      </c>
+      <c r="D29" s="15">
+        <f>ROUND(C29,2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="E29" s="14">
+        <f>E6/E7</f>
+        <v>0.79670329670329665</v>
+      </c>
+      <c r="F29" s="15">
+        <f>ROUND(E29,2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="10">
+        <f>C12/C7</f>
+        <v>1.8408393039918116</v>
+      </c>
+      <c r="D30" s="11">
+        <f>ROUND(C30,2)</f>
+        <v>1.84</v>
+      </c>
+      <c r="E30" s="10">
+        <f>E12/E7</f>
+        <v>1.7967032967032968</v>
+      </c>
+      <c r="F30" s="11">
+        <f>ROUND(E30,2)</f>
+        <v>1.8</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <f>C3/C4</f>
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <f>ROUND(C25,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <f>(C3-C5)/C4</f>
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D38" si="0">ROUND(C26,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C32" s="6">
+        <f>C8/((C5+E5)/2)</f>
+        <v>7.0899830220713076</v>
+      </c>
+      <c r="D32" s="7">
+        <f>ROUND(C32,2)</f>
+        <v>7.09</v>
+      </c>
+      <c r="E32" s="6">
+        <f>E8/((E5+292)/2)</f>
+        <v>5.7804054054054053</v>
+      </c>
+      <c r="F32" s="7">
+        <f>ROUND(E32,2)</f>
+        <v>5.78</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C27">
-        <f>C6/C12</f>
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C33" s="14">
+        <f>C9/C32</f>
+        <v>51.481082375478927</v>
+      </c>
+      <c r="D33" s="15">
+        <f>ROUND(C33,2)</f>
+        <v>51.48</v>
+      </c>
+      <c r="E33" s="14">
+        <f>E9/E32</f>
+        <v>63.144360023378141</v>
+      </c>
+      <c r="F33" s="15">
+        <f>ROUND(E33,2)</f>
+        <v>63.14</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C28">
-        <f>C6/C7</f>
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C34" s="14">
+        <f>C10/((C20+E20)/2)</f>
+        <v>7.0829493087557607</v>
+      </c>
+      <c r="D34" s="15">
+        <f>ROUND(C34,2)</f>
+        <v>7.08</v>
+      </c>
+      <c r="E34" s="14">
+        <f>E10/((E20+276)/2)</f>
+        <v>8.0093603744149764</v>
+      </c>
+      <c r="F34" s="15">
+        <f>ROUND(E34,2)</f>
+        <v>8.01</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29">
-        <f>C12/C7</f>
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C35" s="14">
+        <f>C9/C34</f>
+        <v>51.532205595315546</v>
+      </c>
+      <c r="D35" s="15">
+        <f>ROUND(C35,2)</f>
+        <v>51.53</v>
+      </c>
+      <c r="E35" s="14">
+        <f>E9/E34</f>
+        <v>45.571679002726917</v>
+      </c>
+      <c r="F35" s="15">
+        <f>ROUND(E35,2)</f>
+        <v>45.57</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C30">
-        <f>C8/C5</f>
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C36" s="14">
+        <f>C10/C11</f>
+        <v>1.2948609941027802</v>
+      </c>
+      <c r="D36" s="15">
+        <f>ROUND(C36,2)</f>
+        <v>1.29</v>
+      </c>
+      <c r="E36" s="14">
+        <f>E10/E11</f>
+        <v>1.1328331862312444</v>
+      </c>
+      <c r="F36" s="15">
+        <f>ROUND(E36,2)</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C31">
-        <f>C9/C30</f>
-        <v>365</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C37" s="10">
+        <f>C10/C12</f>
+        <v>0.85460105643591877</v>
+      </c>
+      <c r="D37" s="11">
+        <f>ROUND(C37,2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="E37" s="10">
+        <f>E10/E12</f>
+        <v>0.78501529051987773</v>
+      </c>
+      <c r="F37" s="11">
+        <f>ROUND(E37,2)</f>
+        <v>0.79</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6">
+        <f>C13/C10</f>
+        <v>7.9375406636304491E-2</v>
+      </c>
+      <c r="D39" s="7">
+        <f>ROUND(C39,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="E39" s="6">
+        <f>E13/E10</f>
+        <v>6.1940007791195947E-2</v>
+      </c>
+      <c r="F39" s="7">
+        <f>ROUND(E39,2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C32">
-        <f>C10/C20</f>
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C40" s="14">
+        <f>C13/C12</f>
+        <v>6.7834306366416464E-2</v>
+      </c>
+      <c r="D40" s="15">
+        <f>ROUND(C40,2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E40" s="14">
+        <f>E13/E12</f>
+        <v>4.8623853211009177E-2</v>
+      </c>
+      <c r="F40" s="15">
+        <f>ROUND(E40,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C33">
-        <f>C9/C32</f>
-        <v>365</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C41" s="10">
+        <f>C13/C7</f>
+        <v>0.12487205731832139</v>
+      </c>
+      <c r="D41" s="11">
+        <f>ROUND(C41,2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="E41" s="10">
+        <f>E13/E7</f>
+        <v>8.7362637362637358E-2</v>
+      </c>
+      <c r="F41" s="11">
+        <f>ROUND(E41,2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C34">
-        <f>C10/C11</f>
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35">
-        <f>C10/C12</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <f>C13/C10</f>
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37">
-        <f>C13/C12</f>
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <f>C13/C14</f>
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" t="str">
+      <c r="C43" s="6" t="str">
         <f>IF($C$21,C13/C15,"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="D39" t="str">
-        <f>IF(C39="N/A","N/A",ROUND(C39,2))</f>
+      <c r="D43" s="7" t="str">
+        <f>IF(C43="N/A","N/A",ROUND(C43,2))</f>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="str">
+      <c r="E43" s="6" t="str">
+        <f>IF($C$21,E13/E15,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f>IF(E43="N/A","N/A",ROUND(E43,2))</f>
+        <v>N/A</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="14" t="str">
         <f>IF($C$21,C16/C19,"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" ref="D40:D41" si="1">IF(C40="N/A","N/A",ROUND(C40,2))</f>
+      <c r="D44" s="15" t="str">
+        <f>IF(C44="N/A","N/A",ROUND(C44,2))</f>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="str">
+      <c r="E44" s="14" t="str">
+        <f>IF($C$21,E16/E19,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F44" s="15" t="str">
+        <f>IF(E44="N/A","N/A",ROUND(E44,2))</f>
+        <v>N/A</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="10" t="str">
         <f>IF($C$21,C17/C18,"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
+      <c r="D45" s="11" t="str">
+        <f>IF(C45="N/A","N/A",ROUND(C45,2))</f>
         <v>N/A</v>
+      </c>
+      <c r="E45" s="10" t="str">
+        <f>IF($C$21,E17/E18,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F45" s="11" t="str">
+        <f>IF(E45="N/A","N/A",ROUND(E45,2))</f>
+        <v>N/A</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D32:E33 D28:E30 D25:E26 D39:E40 D34 D35:E37 D43:E45 D41" formula="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>